--- a/excel/Book1.xlsx
+++ b/excel/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fa_sai/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6101A181-6AF9-DA43-82AE-F86BD46416AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1122D3A9-E9C2-8648-9CDE-91F9C2235CA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" xr2:uid="{3A72A266-08C9-AE4A-80BA-D7CE61528579}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>Dec 2018 - May 2019</t>
   </si>
@@ -88,13 +88,106 @@
   </si>
   <si>
     <t>0.1361</t>
+  </si>
+  <si>
+    <t>RM01-1871</t>
+  </si>
+  <si>
+    <t>7289-7428-30</t>
+  </si>
+  <si>
+    <t>RM01-1872</t>
+  </si>
+  <si>
+    <t>7286-7860</t>
+  </si>
+  <si>
+    <t>JL01-8198</t>
+  </si>
+  <si>
+    <t>7289-5746-30</t>
+  </si>
+  <si>
+    <t>JL01-8199</t>
+  </si>
+  <si>
+    <t>0.2194</t>
+  </si>
+  <si>
+    <t>0.3027</t>
+  </si>
+  <si>
+    <t>0.3860</t>
+  </si>
+  <si>
+    <t>0.4693</t>
+  </si>
+  <si>
+    <t>0.5526</t>
+  </si>
+  <si>
+    <t>0.6359</t>
+  </si>
+  <si>
+    <t>Dec 2018 - May 2020</t>
+  </si>
+  <si>
+    <t>Dec 2018 - May 2021</t>
+  </si>
+  <si>
+    <t>Dec 2018 - May 2022</t>
+  </si>
+  <si>
+    <t>Dec 2018 - May 2023</t>
+  </si>
+  <si>
+    <t>Dec 2018 - May 2024</t>
+  </si>
+  <si>
+    <t>Dec 2018 - May 2025</t>
+  </si>
+  <si>
+    <t>JL01-8200</t>
+  </si>
+  <si>
+    <t>7289-5746-31</t>
+  </si>
+  <si>
+    <t>0.7192</t>
+  </si>
+  <si>
+    <t>Dec 2018 - May 2026</t>
+  </si>
+  <si>
+    <t>JL01-8201</t>
+  </si>
+  <si>
+    <t>7189-8974-31</t>
+  </si>
+  <si>
+    <t>0.8025</t>
+  </si>
+  <si>
+    <t>Dec 2018 - May 2027</t>
+  </si>
+  <si>
+    <t>JL01-8202</t>
+  </si>
+  <si>
+    <t>7289-5746-32</t>
+  </si>
+  <si>
+    <t>0.8858</t>
+  </si>
+  <si>
+    <t>Dec 2018 - May 2028</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,12 +212,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -182,19 +269,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -206,13 +299,16 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9F9E9F-1A24-234D-B7A5-DEA63F425504}">
-  <dimension ref="A2:AB8"/>
+  <dimension ref="A2:AB15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -554,345 +650,718 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="A3" s="10">
         <v>11</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="11">
         <v>43592</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>1000</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="10">
         <v>52.48</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="6">
         <v>5.2479999999999999E-2</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="10">
         <v>52.48</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="10">
         <v>52.8</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="10">
         <v>-0.32000000000000028</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="12">
         <v>-6.0606060606060667E-3</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="10">
         <v>12</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="11">
         <v>43592</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>4000</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="10">
         <v>52.48</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="6">
         <v>5.2479999999999999E-2</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="10">
         <v>209.92</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="10">
         <v>211.2</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="10">
         <v>-1.2800000000000011</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="12">
         <v>-6.0606060606060667E-3</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="10">
         <v>13</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>43592</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>4000</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="10">
         <v>52.48</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="6">
         <v>5.2479999999999999E-2</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="10">
         <v>209.92</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="10">
         <v>211.2</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="10">
         <v>-1.2800000000000011</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="12">
         <v>-6.0606060606060667E-3</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="10">
         <v>14</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>43592</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>5000</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="10">
         <v>135.13999999999999</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <v>0.13513999999999998</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="10">
         <v>675.69999999999993</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="10">
         <v>680.5</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="10">
         <v>-4.8000000000000682</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="12">
         <v>-7.0536370315945158E-3</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
+      <c r="A7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="14">
+        <v>43574</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="15">
+        <v>2400</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="15">
+        <v>199.82</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.21779999999999999</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1141.48</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1149.8</v>
+      </c>
+      <c r="L7" s="10">
+        <v>-8.32000000000013</v>
+      </c>
+      <c r="M7" s="12">
+        <v>-7.0536370315945158E-3</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
+      <c r="A8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="14">
+        <v>43574</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="15">
+        <v>199.82</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.30046</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1607.26</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1619.1</v>
+      </c>
+      <c r="L8" s="10">
+        <v>-11.840000000000201</v>
+      </c>
+      <c r="M8" s="12">
+        <v>-7.0536370315945158E-3</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="14">
+        <v>43574</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1200</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="15">
+        <v>199.82</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.38312000000000002</v>
+      </c>
+      <c r="I9" s="10">
+        <v>2073.04</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="10">
+        <v>2088.4</v>
+      </c>
+      <c r="L9" s="10">
+        <v>-15.3600000000003</v>
+      </c>
+      <c r="M9" s="12">
+        <v>-7.0536370315945158E-3</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="14">
+        <v>43574</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="15">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="15">
+        <v>191.74</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.46578000000000003</v>
+      </c>
+      <c r="I10" s="10">
+        <v>2538.8200000000002</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="10">
+        <v>2557.6999999999998</v>
+      </c>
+      <c r="L10" s="10">
+        <v>-18.880000000000301</v>
+      </c>
+      <c r="M10" s="12">
+        <v>-7.0536370315945158E-3</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="14">
+        <v>43577</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="15">
+        <v>4500</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="15">
+        <v>863.67</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.54844000000000004</v>
+      </c>
+      <c r="I11" s="10">
+        <v>3004.6</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="10">
+        <v>3027</v>
+      </c>
+      <c r="L11" s="10">
+        <v>-22.4000000000004</v>
+      </c>
+      <c r="M11" s="12">
+        <v>-7.0536370315945158E-3</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="14">
+        <v>43577</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="15">
+        <v>52.48</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.63109999999999999</v>
+      </c>
+      <c r="I12" s="10">
+        <v>3470.38</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="10">
+        <v>3496.3</v>
+      </c>
+      <c r="L12" s="10">
+        <v>-25.920000000000499</v>
+      </c>
+      <c r="M12" s="12">
+        <v>-7.0536370315945158E-3</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="14">
+        <v>43577</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="15">
+        <v>3500</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="15">
+        <v>-758.71</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.71375999999999995</v>
+      </c>
+      <c r="I13" s="10">
+        <v>3936.16</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="10">
+        <v>3965.6</v>
+      </c>
+      <c r="L13" s="10">
+        <v>-29.440000000000602</v>
+      </c>
+      <c r="M13" s="12">
+        <v>-7.0536370315945202E-3</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="14">
+        <v>43577</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="15">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="15">
+        <v>-1569.9</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.79642000000000002</v>
+      </c>
+      <c r="I14" s="10">
+        <v>4401.9399999999996</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="10">
+        <v>4434.8999999999996</v>
+      </c>
+      <c r="L14" s="10">
+        <v>-32.960000000000697</v>
+      </c>
+      <c r="M14" s="12">
+        <v>-7.0536370315945202E-3</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="14">
+        <v>43577</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2500</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="15">
+        <v>-2381.09</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.87907999999999997</v>
+      </c>
+      <c r="I15" s="10">
+        <v>4867.72</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="10">
+        <v>4904.2</v>
+      </c>
+      <c r="L15" s="10">
+        <v>-36.4800000000008</v>
+      </c>
+      <c r="M15" s="12">
+        <v>-7.0536370315945202E-3</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
